--- a/Code/Results/Cases/Case_2_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_206/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.74317171386465</v>
+        <v>13.29643343826742</v>
       </c>
       <c r="C2">
-        <v>14.27485618800022</v>
+        <v>8.430627994093014</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>22.96595550196319</v>
+        <v>23.97950684076044</v>
       </c>
       <c r="F2">
-        <v>36.19719926069076</v>
+        <v>39.71623611335701</v>
       </c>
       <c r="G2">
-        <v>2.056795879014263</v>
+        <v>3.608558167608966</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.249418378495221</v>
+        <v>7.627427706543941</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.42810058680971</v>
+        <v>16.16378226076835</v>
       </c>
       <c r="O2">
-        <v>13.58608669318846</v>
+        <v>19.3859581748509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.3638813010973</v>
+        <v>12.71109282124262</v>
       </c>
       <c r="C3">
-        <v>13.4120420701793</v>
+        <v>7.965083392051193</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.67845241238402</v>
+        <v>23.73300734455565</v>
       </c>
       <c r="F3">
-        <v>34.38941843275815</v>
+        <v>39.46798755326568</v>
       </c>
       <c r="G3">
-        <v>2.062620325346335</v>
+        <v>3.610708912640057</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.292019568175847</v>
+        <v>7.652217005600419</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.51757703874793</v>
+        <v>16.20240832673113</v>
       </c>
       <c r="O3">
-        <v>13.34144180085887</v>
+        <v>19.4408127813896</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46761641440219</v>
+        <v>12.33892020364333</v>
       </c>
       <c r="C4">
-        <v>12.85362732008936</v>
+        <v>7.663476833627128</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.86325638228787</v>
+        <v>23.58574254925725</v>
       </c>
       <c r="F4">
-        <v>33.26639007238848</v>
+        <v>39.32693451360839</v>
       </c>
       <c r="G4">
-        <v>2.066295505901265</v>
+        <v>3.612098313639028</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.320474532685007</v>
+        <v>7.668456600434549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.57661853198755</v>
+        <v>16.22803490242455</v>
       </c>
       <c r="O4">
-        <v>13.208756086794</v>
+        <v>19.48068904485964</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08989509578193</v>
+        <v>12.18425567004727</v>
       </c>
       <c r="C5">
-        <v>12.61890181223651</v>
+        <v>7.53666437833051</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.52515329451784</v>
+        <v>23.52681848591964</v>
       </c>
       <c r="F5">
-        <v>32.80603101304918</v>
+        <v>39.2723621739228</v>
       </c>
       <c r="G5">
-        <v>2.067818904813071</v>
+        <v>3.612681872374225</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.332629402714612</v>
+        <v>7.675330809649552</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.60168647556704</v>
+        <v>16.23895887137366</v>
       </c>
       <c r="O5">
-        <v>13.15898502840686</v>
+        <v>19.49848854592505</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.0264186777363</v>
+        <v>12.15839919009058</v>
       </c>
       <c r="C6">
-        <v>12.57949437809317</v>
+        <v>7.515373344440763</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.46866512360851</v>
+        <v>23.51710157917839</v>
       </c>
       <c r="F6">
-        <v>32.72944311869519</v>
+        <v>39.26347741201953</v>
       </c>
       <c r="G6">
-        <v>2.068073442281413</v>
+        <v>3.612779822444425</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.334680973262863</v>
+        <v>7.676487762550795</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.60590921931015</v>
+        <v>16.24080185424786</v>
       </c>
       <c r="O6">
-        <v>13.15097673573716</v>
+        <v>19.50153748026621</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.46257297783342</v>
+        <v>12.3368461963558</v>
       </c>
       <c r="C7">
-        <v>12.85049068748386</v>
+        <v>7.661782323089255</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.85872006256638</v>
+        <v>23.58494339797698</v>
       </c>
       <c r="F7">
-        <v>33.26019168773241</v>
+        <v>39.32618669834637</v>
       </c>
       <c r="G7">
-        <v>2.066315945705917</v>
+        <v>3.612106113323874</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.320636216543786</v>
+        <v>7.668548269774631</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.57695255521207</v>
+        <v>16.22818027877197</v>
       </c>
       <c r="O7">
-        <v>13.20806760497899</v>
+        <v>19.48092283222775</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.27779605605942</v>
+        <v>13.09737604738587</v>
       </c>
       <c r="C8">
-        <v>13.98331838746647</v>
+        <v>8.273409960007434</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>22.5272993182909</v>
+        <v>23.89370214950011</v>
       </c>
       <c r="F8">
-        <v>35.57689107234456</v>
+        <v>39.62831016611347</v>
       </c>
       <c r="G8">
-        <v>2.058784140142474</v>
+        <v>3.609285492483409</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.26361876744066</v>
+        <v>7.635763735411075</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.45808580208832</v>
+        <v>16.17670448773974</v>
       </c>
       <c r="O8">
-        <v>13.49803621024049</v>
+        <v>19.40358138787666</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.44913344801943</v>
+        <v>14.47958729923316</v>
       </c>
       <c r="C9">
-        <v>15.97687919366079</v>
+        <v>9.345829300482752</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.59428723027428</v>
+        <v>24.52887814728147</v>
       </c>
       <c r="F9">
-        <v>39.99689375126248</v>
+        <v>40.30864149948159</v>
       </c>
       <c r="G9">
-        <v>2.044758148663148</v>
+        <v>3.604297810945738</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.170954030866627</v>
+        <v>7.579546805367922</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.25870003378531</v>
+        <v>16.09088787019984</v>
       </c>
       <c r="O9">
-        <v>14.20963099150985</v>
+        <v>19.30141869028296</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.54756960149756</v>
+        <v>15.41974693506985</v>
       </c>
       <c r="C10">
-        <v>17.30286641482994</v>
+        <v>10.05442691315731</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>27.71469999029561</v>
+        <v>25.0098915005126</v>
       </c>
       <c r="F10">
-        <v>43.15043779854174</v>
+        <v>40.85854236493695</v>
       </c>
       <c r="G10">
-        <v>2.03484478220283</v>
+        <v>3.600961039898994</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.115948355196044</v>
+        <v>7.543151183078006</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.13452495393828</v>
+        <v>16.03702343867038</v>
       </c>
       <c r="O10">
-        <v>14.82381075351215</v>
+        <v>19.25697737622461</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.45315195196382</v>
+        <v>15.8296622993498</v>
       </c>
       <c r="C11">
-        <v>17.87629481768532</v>
+        <v>10.35931789938339</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.65000052847753</v>
+        <v>25.23101521451716</v>
       </c>
       <c r="F11">
-        <v>44.56271002228566</v>
+        <v>41.11874131836648</v>
       </c>
       <c r="G11">
-        <v>2.0304049308061</v>
+        <v>3.599513423963897</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.09411549168331</v>
+        <v>7.527656382478338</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.08331570947448</v>
+        <v>16.01450601151682</v>
       </c>
       <c r="O11">
-        <v>15.12370984192717</v>
+        <v>19.24348952816879</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.7891323399781</v>
+        <v>15.98223668311627</v>
       </c>
       <c r="C12">
-        <v>18.08919501160191</v>
+        <v>10.47224873692964</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>28.99999055404152</v>
+        <v>25.31501200667959</v>
       </c>
       <c r="F12">
-        <v>45.09425081999991</v>
+        <v>41.21864097548888</v>
       </c>
       <c r="G12">
-        <v>2.028732349928353</v>
+        <v>3.598975298650953</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.086339572945655</v>
+        <v>7.521941387222516</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.06472362895604</v>
+        <v>16.00626423211462</v>
       </c>
       <c r="O12">
-        <v>15.2402653558653</v>
+        <v>19.23935520360026</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.71708007269742</v>
+        <v>15.94949636906726</v>
       </c>
       <c r="C13">
-        <v>18.04353124984842</v>
+        <v>10.44803953988268</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>28.9247993156049</v>
+        <v>25.29691124893018</v>
       </c>
       <c r="F13">
-        <v>44.97991866510181</v>
+        <v>41.19706620781484</v>
       </c>
       <c r="G13">
-        <v>2.02909220609317</v>
+        <v>3.599090747192636</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.087991825651764</v>
+        <v>7.523165430984043</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.06869151131302</v>
+        <v>16.00802657505002</v>
       </c>
       <c r="O13">
-        <v>15.21502939967675</v>
+        <v>19.24020223736849</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.48093181374551</v>
+        <v>15.8422683279259</v>
       </c>
       <c r="C14">
-        <v>17.89389507297042</v>
+        <v>10.36865945681052</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>28.67887804637916</v>
+        <v>25.2379208284607</v>
       </c>
       <c r="F14">
-        <v>44.60650543107727</v>
+        <v>41.12693315676579</v>
       </c>
       <c r="G14">
-        <v>2.030267160426831</v>
+        <v>3.599468950849488</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.093465706490554</v>
+        <v>7.527183149767003</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.08176985398159</v>
+        <v>16.01382224455709</v>
       </c>
       <c r="O14">
-        <v>15.13323877224196</v>
+        <v>19.24312986000565</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.33538304976386</v>
+        <v>15.77624012707055</v>
       </c>
       <c r="C15">
-        <v>17.80168704913881</v>
+        <v>10.31970769983746</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>28.52770028706025</v>
+        <v>25.2018195499086</v>
       </c>
       <c r="F15">
-        <v>44.37735503690912</v>
+        <v>41.08415046147086</v>
       </c>
       <c r="G15">
-        <v>2.030987944336205</v>
+        <v>3.599701919445464</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.09688368897725</v>
+        <v>7.529663981301198</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.08988613543723</v>
+        <v>16.01740937176126</v>
       </c>
       <c r="O15">
-        <v>15.08353027490522</v>
+        <v>19.24505001217305</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.48741018560574</v>
+        <v>15.39259184284641</v>
       </c>
       <c r="C16">
-        <v>17.26479534256666</v>
+        <v>10.03414897338152</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>27.6529874724536</v>
+        <v>24.99548101348374</v>
       </c>
       <c r="F16">
-        <v>43.05768755971368</v>
+        <v>40.84173342118708</v>
       </c>
       <c r="G16">
-        <v>2.035136229283679</v>
+        <v>3.601057055012237</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.117442118580166</v>
+        <v>7.544185158637171</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.13798121645804</v>
+        <v>16.03853492385204</v>
       </c>
       <c r="O16">
-        <v>14.80462787113643</v>
+        <v>19.25799473707745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.95472576108897</v>
+        <v>15.15261140136323</v>
       </c>
       <c r="C17">
-        <v>16.92782750577791</v>
+        <v>9.854485495186822</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>27.10887973656853</v>
+        <v>24.86944041124466</v>
       </c>
       <c r="F17">
-        <v>42.2423405242977</v>
+        <v>40.69553791848438</v>
       </c>
       <c r="G17">
-        <v>2.037698024467185</v>
+        <v>3.601906353717625</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.130893480624824</v>
+        <v>7.553365275692404</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.16886582790337</v>
+        <v>16.05200303154051</v>
       </c>
       <c r="O17">
-        <v>14.63881270306359</v>
+        <v>19.26766353876945</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.64372045485475</v>
+        <v>15.01291329322171</v>
       </c>
       <c r="C18">
-        <v>16.7312076360133</v>
+        <v>9.749505559214853</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.79316228133978</v>
+        <v>24.79716663821511</v>
       </c>
       <c r="F18">
-        <v>41.77127363359008</v>
+        <v>40.61240053298995</v>
       </c>
       <c r="G18">
-        <v>2.039178157052074</v>
+        <v>3.602401467810138</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.138928392496098</v>
+        <v>7.558745380331352</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.18712404661616</v>
+        <v>16.05993646848459</v>
       </c>
       <c r="O18">
-        <v>14.54536813227669</v>
+        <v>19.27385782378728</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.53762299717918</v>
+        <v>14.96533068912063</v>
       </c>
       <c r="C19">
-        <v>16.66415284417465</v>
+        <v>9.713679630951733</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.68579164661912</v>
+        <v>24.7727361486367</v>
       </c>
       <c r="F19">
-        <v>41.611420670663</v>
+        <v>40.58441716241008</v>
       </c>
       <c r="G19">
-        <v>2.039680486620468</v>
+        <v>3.602570243546779</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.141699109387993</v>
+        <v>7.560584160900374</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.19338966325759</v>
+        <v>16.06265471517795</v>
       </c>
       <c r="O19">
-        <v>14.51405922211005</v>
+        <v>19.27606364487234</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.0119082831511</v>
+        <v>15.17833108002334</v>
       </c>
       <c r="C20">
-        <v>16.96398837091822</v>
+        <v>9.873781069384746</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>27.1670866803141</v>
+        <v>24.88283523681453</v>
       </c>
       <c r="F20">
-        <v>42.32935368882003</v>
+        <v>40.71100286241276</v>
       </c>
       <c r="G20">
-        <v>2.037424637493776</v>
+        <v>3.601815259668173</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.129430484416821</v>
+        <v>7.552377693681477</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.16552667613028</v>
+        <v>16.05054998457154</v>
       </c>
       <c r="O20">
-        <v>14.65626417012813</v>
+        <v>19.26656871721316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.55048188399344</v>
+        <v>15.87383646219848</v>
       </c>
       <c r="C21">
-        <v>17.93796170856189</v>
+        <v>10.39204392930752</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>28.75122431928982</v>
+        <v>25.25524118831507</v>
       </c>
       <c r="F21">
-        <v>44.71627427694595</v>
+        <v>41.14749643322082</v>
       </c>
       <c r="G21">
-        <v>2.029921823172423</v>
+        <v>3.599357590789628</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.091844270328408</v>
+        <v>7.525998909203792</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.07790638089592</v>
+        <v>16.01211218258872</v>
       </c>
       <c r="O21">
-        <v>15.15718118360681</v>
+        <v>19.24224349160928</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.51560661715396</v>
+        <v>16.31289912715328</v>
       </c>
       <c r="C22">
-        <v>18.54979186532617</v>
+        <v>10.71603853634981</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>29.7621838742586</v>
+        <v>25.50012531278899</v>
       </c>
       <c r="F22">
-        <v>46.25732584520764</v>
+        <v>41.44070625267886</v>
       </c>
       <c r="G22">
-        <v>2.025068267556748</v>
+        <v>3.597809948314777</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.070163319579105</v>
+        <v>7.509647970253694</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.02532446033842</v>
+        <v>15.98865232076035</v>
       </c>
       <c r="O22">
-        <v>15.50200817407915</v>
+        <v>19.23202039222123</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.00416412637089</v>
+        <v>16.08000851787396</v>
       </c>
       <c r="C23">
-        <v>18.22549380624596</v>
+        <v>10.54446720845308</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>29.22482503192394</v>
+        <v>25.36931219919362</v>
       </c>
       <c r="F23">
-        <v>45.4365641210883</v>
+        <v>41.2835145561618</v>
       </c>
       <c r="G23">
-        <v>2.027654604455236</v>
+        <v>3.598630611117458</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.081459193510288</v>
+        <v>7.51829345964293</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.05294554852846</v>
+        <v>16.00102141876752</v>
       </c>
       <c r="O23">
-        <v>15.3163573468726</v>
+        <v>19.23695572514422</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.98607089254934</v>
+        <v>15.16670859483023</v>
       </c>
       <c r="C24">
-        <v>16.94764905612504</v>
+        <v>9.865062800077361</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>27.14078036339303</v>
+        <v>24.87677884319436</v>
       </c>
       <c r="F24">
-        <v>42.29002223674277</v>
+        <v>40.70400831340456</v>
       </c>
       <c r="G24">
-        <v>2.037548212836708</v>
+        <v>3.601856421974101</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.130090968219504</v>
+        <v>7.552823860737108</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.16703474530447</v>
+        <v>16.05120631382895</v>
       </c>
       <c r="O24">
-        <v>14.6483684943251</v>
+        <v>19.26706170666549</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.63225947593282</v>
+        <v>14.1183465998811</v>
       </c>
       <c r="C25">
-        <v>15.46199111058034</v>
+        <v>9.069533522677675</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.78758414576684</v>
+        <v>24.35425001319811</v>
       </c>
       <c r="F25">
-        <v>38.81665465134113</v>
+        <v>40.11553111375434</v>
       </c>
       <c r="G25">
-        <v>2.048479031743252</v>
+        <v>3.605589302469629</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.193836175031242</v>
+        <v>7.593892223938979</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.30885809799303</v>
+        <v>16.11248793172099</v>
       </c>
       <c r="O25">
-        <v>14.00132993403896</v>
+        <v>19.32370902538016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_206/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_206/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.29643343826742</v>
+        <v>20.74317171386465</v>
       </c>
       <c r="C2">
-        <v>8.430627994093014</v>
+        <v>14.27485618800022</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.97950684076044</v>
+        <v>22.96595550196321</v>
       </c>
       <c r="F2">
-        <v>39.71623611335701</v>
+        <v>36.19719926069077</v>
       </c>
       <c r="G2">
-        <v>3.608558167608966</v>
+        <v>2.056795879014129</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.627427706543941</v>
+        <v>4.249418378495224</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.16378226076835</v>
+        <v>11.42810058680971</v>
       </c>
       <c r="O2">
-        <v>19.3859581748509</v>
+        <v>13.58608669318847</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.71109282124262</v>
+        <v>19.3638813010973</v>
       </c>
       <c r="C3">
-        <v>7.965083392051193</v>
+        <v>13.4120420701793</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>23.73300734455565</v>
+        <v>21.67845241238398</v>
       </c>
       <c r="F3">
-        <v>39.46798755326568</v>
+        <v>34.38941843275815</v>
       </c>
       <c r="G3">
-        <v>3.610708912640057</v>
+        <v>2.062620325346067</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.652217005600419</v>
+        <v>4.292019568175753</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.20240832673113</v>
+        <v>11.51757703874794</v>
       </c>
       <c r="O3">
-        <v>19.4408127813896</v>
+        <v>13.34144180085887</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33892020364333</v>
+        <v>18.46761641440216</v>
       </c>
       <c r="C4">
-        <v>7.663476833627128</v>
+        <v>12.8536273200892</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.58574254925725</v>
+        <v>20.86325638228779</v>
       </c>
       <c r="F4">
-        <v>39.32693451360839</v>
+        <v>33.26639007238844</v>
       </c>
       <c r="G4">
-        <v>3.612098313639028</v>
+        <v>2.066295505900862</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.668456600434549</v>
+        <v>4.320474532685004</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.22803490242455</v>
+        <v>11.57661853198755</v>
       </c>
       <c r="O4">
-        <v>19.48068904485964</v>
+        <v>13.2087560867941</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.18425567004727</v>
+        <v>18.08989509578201</v>
       </c>
       <c r="C5">
-        <v>7.53666437833051</v>
+        <v>12.6189018122365</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.52681848591964</v>
+        <v>20.52515329451791</v>
       </c>
       <c r="F5">
-        <v>39.2723621739228</v>
+        <v>32.80603101304915</v>
       </c>
       <c r="G5">
-        <v>3.612681872374225</v>
+        <v>2.067818904812937</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.675330809649552</v>
+        <v>4.332629402714582</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.23895887137366</v>
+        <v>11.60168647556697</v>
       </c>
       <c r="O5">
-        <v>19.49848854592505</v>
+        <v>13.15898502840671</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.15839919009058</v>
+        <v>18.02641867773636</v>
       </c>
       <c r="C6">
-        <v>7.515373344440763</v>
+        <v>12.57949437809305</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.51710157917839</v>
+        <v>20.46866512360848</v>
       </c>
       <c r="F6">
-        <v>39.26347741201953</v>
+        <v>32.72944311869507</v>
       </c>
       <c r="G6">
-        <v>3.612779822444425</v>
+        <v>2.068073442281548</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.676487762550795</v>
+        <v>4.334680973262803</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.24080185424786</v>
+        <v>11.60590921931002</v>
       </c>
       <c r="O6">
-        <v>19.50153748026621</v>
+        <v>13.15097673573706</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.3368461963558</v>
+        <v>18.46257297783339</v>
       </c>
       <c r="C7">
-        <v>7.661782323089255</v>
+        <v>12.85049068748386</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.58494339797698</v>
+        <v>20.85872006256641</v>
       </c>
       <c r="F7">
-        <v>39.32618669834637</v>
+        <v>33.26019168773242</v>
       </c>
       <c r="G7">
-        <v>3.612106113323874</v>
+        <v>2.066315945706049</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.668548269774631</v>
+        <v>4.320636216543786</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.22818027877197</v>
+        <v>11.57695255521208</v>
       </c>
       <c r="O7">
-        <v>19.48092283222775</v>
+        <v>13.208067604979</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.09737604738587</v>
+        <v>20.27779605605937</v>
       </c>
       <c r="C8">
-        <v>8.273409960007434</v>
+        <v>13.98331838746642</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.89370214950011</v>
+        <v>22.52729931829091</v>
       </c>
       <c r="F8">
-        <v>39.62831016611347</v>
+        <v>35.57689107234459</v>
       </c>
       <c r="G8">
-        <v>3.609285492483409</v>
+        <v>2.058784140142341</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.635763735411075</v>
+        <v>4.26361876744066</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.17670448773974</v>
+        <v>11.45808580208832</v>
       </c>
       <c r="O8">
-        <v>19.40358138787666</v>
+        <v>13.49803621024056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.47958729923316</v>
+        <v>23.44913344801944</v>
       </c>
       <c r="C9">
-        <v>9.345829300482752</v>
+        <v>15.97687919366063</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>24.52887814728147</v>
+        <v>25.59428723027429</v>
       </c>
       <c r="F9">
-        <v>40.30864149948159</v>
+        <v>39.99689375126245</v>
       </c>
       <c r="G9">
-        <v>3.604297810945738</v>
+        <v>2.044758148662881</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.579546805367922</v>
+        <v>4.170954030866652</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.09088787019984</v>
+        <v>11.25870003378529</v>
       </c>
       <c r="O9">
-        <v>19.30141869028296</v>
+        <v>14.20963099150984</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.41974693506985</v>
+        <v>25.54756960149766</v>
       </c>
       <c r="C10">
-        <v>10.05442691315731</v>
+        <v>17.30286641482997</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>25.0098915005126</v>
+        <v>27.71469999029562</v>
       </c>
       <c r="F10">
-        <v>40.85854236493695</v>
+        <v>43.15043779854174</v>
       </c>
       <c r="G10">
-        <v>3.600961039898994</v>
+        <v>2.034844782203098</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.543151183078006</v>
+        <v>4.115948355196012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.03702343867038</v>
+        <v>11.13452495393829</v>
       </c>
       <c r="O10">
-        <v>19.25697737622461</v>
+        <v>14.8238107535121</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.8296622993498</v>
+        <v>26.45315195196366</v>
       </c>
       <c r="C11">
-        <v>10.35931789938339</v>
+        <v>17.87629481768546</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>25.23101521451716</v>
+        <v>28.65000052847756</v>
       </c>
       <c r="F11">
-        <v>41.11874131836648</v>
+        <v>44.56271002228568</v>
       </c>
       <c r="G11">
-        <v>3.599513423963897</v>
+        <v>2.0304049308061</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.527656382478338</v>
+        <v>4.094115491683389</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.01450601151682</v>
+        <v>11.08331570947455</v>
       </c>
       <c r="O11">
-        <v>19.24348952816879</v>
+        <v>15.12370984192724</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.98223668311627</v>
+        <v>26.78913233997808</v>
       </c>
       <c r="C12">
-        <v>10.47224873692964</v>
+        <v>18.08919501160183</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>25.31501200667959</v>
+        <v>28.99999055404151</v>
       </c>
       <c r="F12">
-        <v>41.21864097548888</v>
+        <v>45.09425081999991</v>
       </c>
       <c r="G12">
-        <v>3.598975298650953</v>
+        <v>2.028732349928354</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.521941387222516</v>
+        <v>4.086339572945689</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.00626423211462</v>
+        <v>11.06472362895606</v>
       </c>
       <c r="O12">
-        <v>19.23935520360026</v>
+        <v>15.24026535586532</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.94949636906726</v>
+        <v>26.7170800726974</v>
       </c>
       <c r="C13">
-        <v>10.44803953988268</v>
+        <v>18.04353124984843</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>25.29691124893018</v>
+        <v>28.9247993156049</v>
       </c>
       <c r="F13">
-        <v>41.19706620781484</v>
+        <v>44.97991866510185</v>
       </c>
       <c r="G13">
-        <v>3.599090747192636</v>
+        <v>2.029092206093036</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.523165430984043</v>
+        <v>4.087991825651831</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.00802657505002</v>
+        <v>11.06869151131302</v>
       </c>
       <c r="O13">
-        <v>19.24020223736849</v>
+        <v>15.21502939967676</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.8422683279259</v>
+        <v>26.48093181374552</v>
       </c>
       <c r="C14">
-        <v>10.36865945681052</v>
+        <v>17.89389507297038</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>25.2379208284607</v>
+        <v>28.67887804637913</v>
       </c>
       <c r="F14">
-        <v>41.12693315676579</v>
+        <v>44.60650543107725</v>
       </c>
       <c r="G14">
-        <v>3.599468950849488</v>
+        <v>2.030267160426697</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.527183149767003</v>
+        <v>4.09346570649057</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.01382224455709</v>
+        <v>11.0817698539816</v>
       </c>
       <c r="O14">
-        <v>19.24312986000565</v>
+        <v>15.13323877224195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.77624012707055</v>
+        <v>26.33538304976384</v>
       </c>
       <c r="C15">
-        <v>10.31970769983746</v>
+        <v>17.80168704913872</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>25.2018195499086</v>
+        <v>28.52770028706023</v>
       </c>
       <c r="F15">
-        <v>41.08415046147086</v>
+        <v>44.37735503690911</v>
       </c>
       <c r="G15">
-        <v>3.599701919445464</v>
+        <v>2.030987944336073</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.529663981301198</v>
+        <v>4.096883688977238</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.01740937176126</v>
+        <v>11.08988613543717</v>
       </c>
       <c r="O15">
-        <v>19.24505001217305</v>
+        <v>15.0835302749052</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.39259184284641</v>
+        <v>25.48741018560576</v>
       </c>
       <c r="C16">
-        <v>10.03414897338152</v>
+        <v>17.26479534256659</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>24.99548101348374</v>
+        <v>27.65298747245361</v>
       </c>
       <c r="F16">
-        <v>40.84173342118708</v>
+        <v>43.05768755971373</v>
       </c>
       <c r="G16">
-        <v>3.601057055012237</v>
+        <v>2.035136229283947</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.544185158637171</v>
+        <v>4.117442118580123</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.03853492385204</v>
+        <v>11.13798121645802</v>
       </c>
       <c r="O16">
-        <v>19.25799473707745</v>
+        <v>14.80462787113642</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.15261140136323</v>
+        <v>24.95472576108904</v>
       </c>
       <c r="C17">
-        <v>9.854485495186822</v>
+        <v>16.92782750577789</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>24.86944041124466</v>
+        <v>27.10887973656852</v>
       </c>
       <c r="F17">
-        <v>40.69553791848438</v>
+        <v>42.24234052429769</v>
       </c>
       <c r="G17">
-        <v>3.601906353717625</v>
+        <v>2.037698024466782</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.553365275692404</v>
+        <v>4.130893480624771</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.05200303154051</v>
+        <v>11.16886582790332</v>
       </c>
       <c r="O17">
-        <v>19.26766353876945</v>
+        <v>14.6388127030635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.01291329322171</v>
+        <v>24.64372045485482</v>
       </c>
       <c r="C18">
-        <v>9.749505559214853</v>
+        <v>16.73120763601329</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>24.79716663821511</v>
+        <v>26.79316228133976</v>
       </c>
       <c r="F18">
-        <v>40.61240053298995</v>
+        <v>41.77127363359009</v>
       </c>
       <c r="G18">
-        <v>3.602401467810138</v>
+        <v>2.039178157052342</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.558745380331352</v>
+        <v>4.138928392496092</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.05993646848459</v>
+        <v>11.18712404661613</v>
       </c>
       <c r="O18">
-        <v>19.27385782378728</v>
+        <v>14.54536813227668</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.96533068912063</v>
+        <v>24.5376229971792</v>
       </c>
       <c r="C19">
-        <v>9.713679630951733</v>
+        <v>16.66415284417462</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.7727361486367</v>
+        <v>26.68579164661909</v>
       </c>
       <c r="F19">
-        <v>40.58441716241008</v>
+        <v>41.61142067066304</v>
       </c>
       <c r="G19">
-        <v>3.602570243546779</v>
+        <v>2.039680486620334</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.560584160900374</v>
+        <v>4.141699109387969</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.06265471517795</v>
+        <v>11.19338966325763</v>
       </c>
       <c r="O19">
-        <v>19.27606364487234</v>
+        <v>14.5140592221101</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.17833108002334</v>
+        <v>25.01190828315104</v>
       </c>
       <c r="C20">
-        <v>9.873781069384746</v>
+        <v>16.96398837091827</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>24.88283523681453</v>
+        <v>27.16708668031407</v>
       </c>
       <c r="F20">
-        <v>40.71100286241276</v>
+        <v>42.32935368882004</v>
       </c>
       <c r="G20">
-        <v>3.601815259668173</v>
+        <v>2.037424637493641</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.552377693681477</v>
+        <v>4.129430484416845</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.05054998457154</v>
+        <v>11.16552667613033</v>
       </c>
       <c r="O20">
-        <v>19.26656871721316</v>
+        <v>14.65626417012822</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87383646219848</v>
+        <v>26.5504818839934</v>
       </c>
       <c r="C21">
-        <v>10.39204392930752</v>
+        <v>17.93796170856194</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>25.25524118831507</v>
+        <v>28.7512243192898</v>
       </c>
       <c r="F21">
-        <v>41.14749643322082</v>
+        <v>44.7162742769459</v>
       </c>
       <c r="G21">
-        <v>3.599357590789628</v>
+        <v>2.029921823172558</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.525998909203792</v>
+        <v>4.091844270328377</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.01211218258872</v>
+        <v>11.07790638089584</v>
       </c>
       <c r="O21">
-        <v>19.24224349160928</v>
+        <v>15.15718118360677</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.31289912715328</v>
+        <v>27.51560661715401</v>
       </c>
       <c r="C22">
-        <v>10.71603853634981</v>
+        <v>18.54979186532626</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>25.50012531278899</v>
+        <v>29.76218387425858</v>
       </c>
       <c r="F22">
-        <v>41.44070625267886</v>
+        <v>46.25732584520762</v>
       </c>
       <c r="G22">
-        <v>3.597809948314777</v>
+        <v>2.025068267557016</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.509647970253694</v>
+        <v>4.070163319579112</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.98865232076035</v>
+        <v>11.02532446033847</v>
       </c>
       <c r="O22">
-        <v>19.23202039222123</v>
+        <v>15.50200817407913</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.08000851787396</v>
+        <v>27.00416412637084</v>
       </c>
       <c r="C23">
-        <v>10.54446720845308</v>
+        <v>18.22549380624604</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>25.36931219919362</v>
+        <v>29.22482503192391</v>
       </c>
       <c r="F23">
-        <v>41.2835145561618</v>
+        <v>45.43656412108829</v>
       </c>
       <c r="G23">
-        <v>3.598630611117458</v>
+        <v>2.02765460445537</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.51829345964293</v>
+        <v>4.081459193510254</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.00102141876752</v>
+        <v>11.05294554852846</v>
       </c>
       <c r="O23">
-        <v>19.23695572514422</v>
+        <v>15.31635734687264</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.16670859483023</v>
+        <v>24.98607089254931</v>
       </c>
       <c r="C24">
-        <v>9.865062800077361</v>
+        <v>16.94764905612504</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>24.87677884319436</v>
+        <v>27.14078036339308</v>
       </c>
       <c r="F24">
-        <v>40.70400831340456</v>
+        <v>42.29002223674279</v>
       </c>
       <c r="G24">
-        <v>3.601856421974101</v>
+        <v>2.03754821283644</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.552823860737108</v>
+        <v>4.13009096821948</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.05120631382895</v>
+        <v>11.16703474530447</v>
       </c>
       <c r="O24">
-        <v>19.26706170666549</v>
+        <v>14.64836849432513</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.1183465998811</v>
+        <v>22.63225947593274</v>
       </c>
       <c r="C25">
-        <v>9.069533522677675</v>
+        <v>15.4619911105802</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>24.35425001319811</v>
+        <v>24.78758414576681</v>
       </c>
       <c r="F25">
-        <v>40.11553111375434</v>
+        <v>38.81665465134117</v>
       </c>
       <c r="G25">
-        <v>3.605589302469629</v>
+        <v>2.048479031743386</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.593892223938979</v>
+        <v>4.193836175031303</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.11248793172099</v>
+        <v>11.30885809799315</v>
       </c>
       <c r="O25">
-        <v>19.32370902538016</v>
+        <v>14.00132993403917</v>
       </c>
     </row>
   </sheetData>
